--- a/Silver Inventory Doc/Silver Database Design.xlsx
+++ b/Silver Inventory Doc/Silver Database Design.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\Disk 2\Silver Inventory\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\Disk 2\silver_git\silver\Silver Inventory Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="166">
   <si>
     <t>Silver</t>
   </si>
@@ -521,13 +521,19 @@
   </si>
   <si>
     <t>Net</t>
+  </si>
+  <si>
+    <t>vNo</t>
+  </si>
+  <si>
+    <t>RefNo</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -568,6 +574,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -885,7 +898,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
@@ -894,15 +907,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -930,7 +934,18 @@
     <xf numFmtId="16" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -938,14 +953,11 @@
   </cellStyles>
   <dxfs count="30">
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
+        <right/>
         <top style="thin">
           <color indexed="64"/>
         </top>
@@ -975,7 +987,25 @@
         <left style="thin">
           <color indexed="64"/>
         </left>
-        <right/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
         <top style="thin">
           <color indexed="64"/>
         </top>
@@ -1158,34 +1188,6 @@
         <left style="thin">
           <color indexed="64"/>
         </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
         <right/>
         <top style="thin">
           <color indexed="64"/>
@@ -1212,6 +1214,7 @@
       </border>
     </dxf>
     <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -1347,6 +1350,15 @@
     </dxf>
     <dxf>
       <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
@@ -1354,18 +1366,21 @@
     </dxf>
     <dxf>
       <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
         <right style="thin">
           <color indexed="64"/>
         </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
+        <top/>
+        <bottom/>
       </border>
     </dxf>
   </dxfs>
@@ -1554,44 +1569,44 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A35:L40" totalsRowShown="0" headerRowDxfId="16" headerRowBorderDxfId="28" tableBorderDxfId="29" totalsRowBorderDxfId="27">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A35:L40" totalsRowShown="0" headerRowDxfId="15" headerRowBorderDxfId="13" tableBorderDxfId="14" totalsRowBorderDxfId="12">
   <autoFilter ref="A35:L40"/>
   <tableColumns count="12">
-    <tableColumn id="1" name="Date" dataDxfId="26"/>
-    <tableColumn id="2" name="LedgerCode" dataDxfId="25"/>
-    <tableColumn id="3" name="JobNo" dataDxfId="24"/>
-    <tableColumn id="4" name="orderNo" dataDxfId="23"/>
-    <tableColumn id="5" name="ItemCode" dataDxfId="22"/>
-    <tableColumn id="6" name="Qty" dataDxfId="21"/>
-    <tableColumn id="12" name="GrossWt" dataDxfId="15"/>
-    <tableColumn id="7" name="NetWeight" dataDxfId="20"/>
-    <tableColumn id="8" name="MakingRate" dataDxfId="19"/>
-    <tableColumn id="9" name="Total" dataDxfId="1">
+    <tableColumn id="1" name="Date" dataDxfId="11"/>
+    <tableColumn id="2" name="LedgerCode" dataDxfId="10"/>
+    <tableColumn id="3" name="JobNo" dataDxfId="9"/>
+    <tableColumn id="4" name="orderNo" dataDxfId="8"/>
+    <tableColumn id="5" name="ItemCode" dataDxfId="7"/>
+    <tableColumn id="6" name="Qty" dataDxfId="6"/>
+    <tableColumn id="12" name="GrossWt" dataDxfId="5"/>
+    <tableColumn id="7" name="NetWeight" dataDxfId="4"/>
+    <tableColumn id="8" name="MakingRate" dataDxfId="3"/>
+    <tableColumn id="9" name="Total" dataDxfId="2">
       <calculatedColumnFormula>H36*I36</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="SellingRate" dataDxfId="18"/>
-    <tableColumn id="11" name="Barcode" dataDxfId="17"/>
+    <tableColumn id="10" name="SellingRate" dataDxfId="1"/>
+    <tableColumn id="11" name="Barcode" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A43:J48" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="12" tableBorderDxfId="13" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A43:J48" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
   <autoFilter ref="A43:J48"/>
   <tableColumns count="10">
-    <tableColumn id="1" name="Date" dataDxfId="10"/>
-    <tableColumn id="2" name="LedgerCode" dataDxfId="9"/>
-    <tableColumn id="5" name="ItemCode" dataDxfId="8"/>
-    <tableColumn id="6" name="Qty" dataDxfId="7"/>
-    <tableColumn id="12" name="GrossWt" dataDxfId="6"/>
-    <tableColumn id="7" name="NetWeight" dataDxfId="5"/>
-    <tableColumn id="8" name="MakingRate" dataDxfId="4"/>
-    <tableColumn id="9" name="Total" dataDxfId="0">
+    <tableColumn id="1" name="Date" dataDxfId="25"/>
+    <tableColumn id="2" name="LedgerCode" dataDxfId="24"/>
+    <tableColumn id="5" name="ItemCode" dataDxfId="23"/>
+    <tableColumn id="6" name="Qty" dataDxfId="22"/>
+    <tableColumn id="12" name="GrossWt" dataDxfId="21"/>
+    <tableColumn id="7" name="NetWeight" dataDxfId="20"/>
+    <tableColumn id="8" name="MakingRate" dataDxfId="19"/>
+    <tableColumn id="9" name="Total" dataDxfId="18">
       <calculatedColumnFormula>SUM(H40:H43)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="SellingRate" dataDxfId="3"/>
-    <tableColumn id="11" name="Barcode" dataDxfId="2"/>
+    <tableColumn id="10" name="SellingRate" dataDxfId="17"/>
+    <tableColumn id="11" name="Barcode" dataDxfId="16"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1919,11 +1934,11 @@
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="E1" s="7"/>
-      <c r="F1" s="8"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="33"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -2082,667 +2097,667 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.28515625" style="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="9"/>
-    <col min="3" max="4" width="23.140625" style="9" customWidth="1"/>
-    <col min="5" max="5" width="16.85546875" style="9" customWidth="1"/>
-    <col min="6" max="6" width="18.7109375" style="9" customWidth="1"/>
-    <col min="7" max="7" width="20.140625" style="9" customWidth="1"/>
-    <col min="8" max="8" width="24.42578125" style="9" customWidth="1"/>
-    <col min="9" max="9" width="19.7109375" style="9" customWidth="1"/>
-    <col min="10" max="15" width="9.140625" style="9"/>
-    <col min="16" max="16" width="19.140625" style="9" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="17.7109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="18" max="20" width="9.140625" style="9"/>
-    <col min="21" max="21" width="12.85546875" style="9" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="16.7109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="10.5703125" style="9" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="12.42578125" style="9" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="10" style="9" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="9"/>
+    <col min="1" max="1" width="15.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="6"/>
+    <col min="3" max="4" width="23.140625" style="6" customWidth="1"/>
+    <col min="5" max="5" width="16.85546875" style="6" customWidth="1"/>
+    <col min="6" max="6" width="18.7109375" style="6" customWidth="1"/>
+    <col min="7" max="7" width="20.140625" style="6" customWidth="1"/>
+    <col min="8" max="8" width="24.42578125" style="6" customWidth="1"/>
+    <col min="9" max="9" width="19.7109375" style="6" customWidth="1"/>
+    <col min="10" max="15" width="9.140625" style="6"/>
+    <col min="16" max="16" width="19.140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="17.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="18" max="20" width="9.140625" style="6"/>
+    <col min="21" max="21" width="12.85546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="16.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="10.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="12.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="10" style="6" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="H2" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="I2" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="J2" s="9" t="s">
+      <c r="J2" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="K2" s="9">
+      <c r="K2" s="6">
         <v>123</v>
       </c>
     </row>
     <row r="3" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10" t="s">
+      <c r="D3" s="7"/>
+      <c r="E3" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="F3" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="G3" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="H3" s="10" t="s">
+      <c r="H3" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="J3" s="10" t="s">
+      <c r="J3" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="K3" s="10" t="s">
+      <c r="K3" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="L3" s="10" t="s">
+      <c r="L3" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="M3" s="10" t="s">
+      <c r="M3" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="N3" s="10" t="s">
+      <c r="N3" s="7" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="4" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10" t="s">
+      <c r="D4" s="7"/>
+      <c r="E4" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="F4" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="G4" s="10" t="s">
+      <c r="G4" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="H4" s="10" t="s">
+      <c r="H4" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="J4" s="10" t="s">
+      <c r="J4" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="K4" s="9">
+      <c r="K4" s="6">
         <v>2</v>
       </c>
-      <c r="L4" s="9">
+      <c r="L4" s="6">
         <v>5</v>
       </c>
-      <c r="M4" s="9">
+      <c r="M4" s="6">
         <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="J5" s="9" t="s">
+      <c r="J5" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="K5" s="9">
+      <c r="K5" s="6">
         <v>4</v>
       </c>
-      <c r="L5" s="9">
+      <c r="L5" s="6">
         <v>10</v>
       </c>
-      <c r="M5" s="9">
+      <c r="M5" s="6">
         <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="6" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="8" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="E8" s="6" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="E9" s="9" t="s">
+      <c r="E9" s="6" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="E10" s="9" t="s">
+      <c r="E10" s="6" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="6" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="C12" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="G12" s="9" t="s">
+      <c r="G12" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="H12" s="9" t="s">
+      <c r="H12" s="6" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="13" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="C13" s="11"/>
-      <c r="P13" s="9" t="s">
+      <c r="C13" s="8"/>
+      <c r="P13" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="AB13" s="9" t="s">
+      <c r="AB13" s="6" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="14" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="9" t="s">
+      <c r="A14" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="C14" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="I14" s="9" t="s">
+      <c r="I14" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="P14" s="9" t="s">
+      <c r="P14" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="R14" s="9" t="s">
+      <c r="R14" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="S14" s="9" t="s">
+      <c r="S14" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="T14" s="9" t="s">
+      <c r="T14" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="U14" s="9" t="s">
+      <c r="U14" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="V14" s="9" t="s">
+      <c r="V14" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="W14" s="9" t="s">
+      <c r="W14" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="X14" s="9" t="s">
+      <c r="X14" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="Y14" s="9" t="s">
+      <c r="Y14" s="6" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="15" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A15" s="9" t="s">
+      <c r="A15" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C15" s="12" t="s">
+      <c r="C15" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="D15" s="13" t="s">
+      <c r="D15" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="E15" s="14">
+      <c r="E15" s="11">
         <v>10</v>
       </c>
-      <c r="F15" s="15">
+      <c r="F15" s="12">
         <v>200</v>
       </c>
-      <c r="G15" s="9" t="s">
+      <c r="G15" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="H15" s="9" t="s">
+      <c r="H15" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="I15" s="12" t="s">
+      <c r="I15" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="J15" s="13" t="s">
+      <c r="J15" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="K15" s="14">
+      <c r="K15" s="11">
         <v>5</v>
       </c>
-      <c r="L15" s="15">
+      <c r="L15" s="12">
         <v>100</v>
       </c>
-      <c r="P15" s="12" t="s">
+      <c r="P15" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="Q15" s="13" t="s">
+      <c r="Q15" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="R15" s="14">
+      <c r="R15" s="11">
         <v>5</v>
       </c>
-      <c r="S15" s="15">
+      <c r="S15" s="12">
         <v>100</v>
       </c>
-      <c r="T15" s="9">
+      <c r="T15" s="6">
         <v>200</v>
       </c>
-      <c r="U15" s="9">
+      <c r="U15" s="6">
         <v>5</v>
       </c>
-      <c r="V15" s="9">
+      <c r="V15" s="6">
         <v>500</v>
       </c>
-      <c r="W15" s="9">
+      <c r="W15" s="6">
         <f>T15*S15+V15</f>
         <v>20500</v>
       </c>
     </row>
     <row r="16" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A16" s="9" t="s">
+      <c r="A16" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C16" s="16"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="19"/>
-      <c r="I16" s="16"/>
-      <c r="J16" s="17"/>
-      <c r="K16" s="18"/>
-      <c r="L16" s="19"/>
-      <c r="P16" s="16" t="s">
+      <c r="C16" s="13"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="16"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="14"/>
+      <c r="K16" s="15"/>
+      <c r="L16" s="16"/>
+      <c r="P16" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="Q16" s="17"/>
-      <c r="R16" s="18"/>
-      <c r="S16" s="19">
+      <c r="Q16" s="14"/>
+      <c r="R16" s="15"/>
+      <c r="S16" s="16">
         <v>1000</v>
       </c>
-      <c r="T16" s="9">
+      <c r="T16" s="6">
         <v>200</v>
       </c>
-      <c r="W16" s="9">
+      <c r="W16" s="6">
         <f>T16*S16</f>
         <v>200000</v>
       </c>
-      <c r="X16" s="9">
+      <c r="X16" s="6">
         <v>210</v>
       </c>
-      <c r="Y16" s="9" t="s">
+      <c r="Y16" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="AB16" s="9" t="s">
+      <c r="AB16" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="AC16" s="9">
+      <c r="AC16" s="6">
         <v>1200</v>
       </c>
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A17" s="9" t="s">
+      <c r="A17" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="C17" s="16"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="18"/>
-      <c r="F17" s="19"/>
-      <c r="I17" s="16"/>
-      <c r="J17" s="17"/>
-      <c r="K17" s="18"/>
-      <c r="L17" s="19"/>
-      <c r="P17" s="16" t="s">
+      <c r="C17" s="13"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="16"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="14"/>
+      <c r="K17" s="15"/>
+      <c r="L17" s="16"/>
+      <c r="P17" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="Q17" s="17"/>
-      <c r="R17" s="18"/>
-      <c r="S17" s="19">
+      <c r="Q17" s="14"/>
+      <c r="R17" s="15"/>
+      <c r="S17" s="16">
         <v>200</v>
       </c>
-      <c r="T17" s="9">
+      <c r="T17" s="6">
         <v>225</v>
       </c>
-      <c r="W17" s="9">
+      <c r="W17" s="6">
         <f>S17*T17</f>
         <v>45000</v>
       </c>
-      <c r="X17" s="9">
+      <c r="X17" s="6">
         <v>235</v>
       </c>
-      <c r="Y17" s="9" t="s">
+      <c r="Y17" s="6" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="18" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A18" s="9" t="s">
+      <c r="A18" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="C18" s="16"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="18"/>
-      <c r="F18" s="19"/>
-      <c r="I18" s="16"/>
-      <c r="J18" s="17"/>
-      <c r="K18" s="18"/>
-      <c r="L18" s="19"/>
-      <c r="P18" s="16"/>
-      <c r="Q18" s="17"/>
-      <c r="R18" s="18"/>
-      <c r="S18" s="19"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="16"/>
+      <c r="I18" s="13"/>
+      <c r="J18" s="14"/>
+      <c r="K18" s="15"/>
+      <c r="L18" s="16"/>
+      <c r="P18" s="13"/>
+      <c r="Q18" s="14"/>
+      <c r="R18" s="15"/>
+      <c r="S18" s="16"/>
     </row>
     <row r="19" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="9" t="s">
+      <c r="A19" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="C19" s="20"/>
-      <c r="D19" s="21"/>
-      <c r="E19" s="22"/>
-      <c r="F19" s="23"/>
-      <c r="I19" s="20"/>
-      <c r="J19" s="21"/>
-      <c r="K19" s="22"/>
-      <c r="L19" s="23"/>
-      <c r="P19" s="20"/>
-      <c r="Q19" s="21"/>
-      <c r="R19" s="22"/>
-      <c r="S19" s="23"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="20"/>
+      <c r="I19" s="17"/>
+      <c r="J19" s="18"/>
+      <c r="K19" s="19"/>
+      <c r="L19" s="20"/>
+      <c r="P19" s="17"/>
+      <c r="Q19" s="18"/>
+      <c r="R19" s="19"/>
+      <c r="S19" s="20"/>
     </row>
     <row r="20" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A20" s="9" t="s">
+      <c r="A20" s="6" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="21" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="9" t="s">
+      <c r="A21" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="C21" s="9" t="s">
+      <c r="C21" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="I21" s="9" t="s">
+      <c r="I21" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="P21" s="9" t="s">
+      <c r="P21" s="6" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="22" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="9" t="s">
+      <c r="A22" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="C22" s="12" t="s">
+      <c r="C22" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="D22" s="13" t="s">
+      <c r="D22" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="E22" s="14">
+      <c r="E22" s="11">
         <v>1</v>
       </c>
-      <c r="F22" s="15">
+      <c r="F22" s="12">
         <v>20</v>
       </c>
-      <c r="G22" s="9" t="s">
+      <c r="G22" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="H22" s="9" t="s">
+      <c r="H22" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="I22" s="12" t="s">
+      <c r="I22" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="J22" s="13" t="s">
+      <c r="J22" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="K22" s="14">
+      <c r="K22" s="11">
         <v>1</v>
       </c>
-      <c r="L22" s="15">
+      <c r="L22" s="12">
         <v>20</v>
       </c>
-      <c r="P22" s="12" t="s">
+      <c r="P22" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="Q22" s="13" t="s">
+      <c r="Q22" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="R22" s="14">
+      <c r="R22" s="11">
         <v>1</v>
       </c>
-      <c r="S22" s="15">
+      <c r="S22" s="12">
         <v>20</v>
       </c>
-      <c r="T22" s="9">
+      <c r="T22" s="6">
         <v>200</v>
       </c>
-      <c r="U22" s="9">
+      <c r="U22" s="6">
         <v>5</v>
       </c>
-      <c r="V22" s="9">
+      <c r="V22" s="6">
         <f>U22*S22</f>
         <v>100</v>
       </c>
-      <c r="W22" s="9">
+      <c r="W22" s="6">
         <f>T22*S22+V22</f>
         <v>4100</v>
       </c>
     </row>
     <row r="23" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="9" t="s">
+      <c r="A23" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="C23" s="16" t="s">
+      <c r="C23" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="D23" s="13" t="s">
+      <c r="D23" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="E23" s="18">
+      <c r="E23" s="15">
         <v>1</v>
       </c>
-      <c r="F23" s="19">
+      <c r="F23" s="16">
         <v>21</v>
       </c>
-      <c r="I23" s="16" t="s">
+      <c r="I23" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="J23" s="13" t="s">
+      <c r="J23" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="K23" s="18">
+      <c r="K23" s="15">
         <v>1</v>
       </c>
-      <c r="L23" s="19">
+      <c r="L23" s="16">
         <v>21</v>
       </c>
-      <c r="P23" s="16" t="s">
+      <c r="P23" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="Q23" s="13" t="s">
+      <c r="Q23" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="R23" s="18">
+      <c r="R23" s="15">
         <v>1</v>
       </c>
-      <c r="S23" s="19">
+      <c r="S23" s="16">
         <v>21</v>
       </c>
-      <c r="T23" s="9">
+      <c r="T23" s="6">
         <v>200</v>
       </c>
-      <c r="U23" s="9">
+      <c r="U23" s="6">
         <v>5</v>
       </c>
-      <c r="V23" s="9">
+      <c r="V23" s="6">
         <f t="shared" ref="V23:V25" si="0">U23*S23</f>
         <v>105</v>
       </c>
-      <c r="W23" s="9">
+      <c r="W23" s="6">
         <f t="shared" ref="W23:W25" si="1">T23*S23+V23</f>
         <v>4305</v>
       </c>
     </row>
     <row r="24" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C24" s="16" t="s">
+      <c r="C24" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="D24" s="13" t="s">
+      <c r="D24" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="E24" s="18">
+      <c r="E24" s="15">
         <v>1</v>
       </c>
-      <c r="F24" s="19">
+      <c r="F24" s="16">
         <v>25</v>
       </c>
-      <c r="I24" s="16" t="s">
+      <c r="I24" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="J24" s="13" t="s">
+      <c r="J24" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="K24" s="18">
+      <c r="K24" s="15">
         <v>1</v>
       </c>
-      <c r="L24" s="19">
+      <c r="L24" s="16">
         <v>25</v>
       </c>
-      <c r="P24" s="16" t="s">
+      <c r="P24" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="Q24" s="13" t="s">
+      <c r="Q24" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="R24" s="18">
+      <c r="R24" s="15">
         <v>1</v>
       </c>
-      <c r="S24" s="19">
+      <c r="S24" s="16">
         <v>25</v>
       </c>
-      <c r="T24" s="9">
+      <c r="T24" s="6">
         <v>200</v>
       </c>
-      <c r="U24" s="9">
+      <c r="U24" s="6">
         <v>5</v>
       </c>
-      <c r="V24" s="9">
+      <c r="V24" s="6">
         <f t="shared" si="0"/>
         <v>125</v>
       </c>
-      <c r="W24" s="9">
+      <c r="W24" s="6">
         <f t="shared" si="1"/>
         <v>5125</v>
       </c>
     </row>
     <row r="25" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C25" s="20" t="s">
+      <c r="C25" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="D25" s="13" t="s">
+      <c r="D25" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="E25" s="22">
+      <c r="E25" s="19">
         <v>1</v>
       </c>
-      <c r="F25" s="23">
+      <c r="F25" s="20">
         <v>30</v>
       </c>
-      <c r="I25" s="20" t="s">
+      <c r="I25" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="J25" s="13" t="s">
+      <c r="J25" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="K25" s="22">
+      <c r="K25" s="19">
         <v>1</v>
       </c>
-      <c r="L25" s="23">
+      <c r="L25" s="20">
         <v>30</v>
       </c>
-      <c r="P25" s="20" t="s">
+      <c r="P25" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="Q25" s="13" t="s">
+      <c r="Q25" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="R25" s="22">
+      <c r="R25" s="19">
         <v>1</v>
       </c>
-      <c r="S25" s="23">
+      <c r="S25" s="20">
         <v>30</v>
       </c>
-      <c r="T25" s="9">
+      <c r="T25" s="6">
         <v>200</v>
       </c>
-      <c r="U25" s="9">
+      <c r="U25" s="6">
         <v>5</v>
       </c>
-      <c r="V25" s="9">
+      <c r="V25" s="6">
         <f t="shared" si="0"/>
         <v>150</v>
       </c>
-      <c r="W25" s="9">
+      <c r="W25" s="6">
         <f t="shared" si="1"/>
         <v>6150</v>
       </c>
     </row>
     <row r="26" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="27" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E27" s="9" t="s">
+      <c r="E27" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="F27" s="24">
+      <c r="F27" s="21">
         <f>SUM(F15:F26)</f>
         <v>296</v>
       </c>
-      <c r="K27" s="9" t="s">
+      <c r="K27" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="L27" s="24">
+      <c r="L27" s="21">
         <f>SUM(L15:L26)</f>
         <v>196</v>
       </c>
-      <c r="R27" s="9" t="s">
+      <c r="R27" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="S27" s="24">
+      <c r="S27" s="21">
         <f>SUM(S15:S26)</f>
         <v>1396</v>
       </c>
-      <c r="W27" s="24">
+      <c r="W27" s="21">
         <f>SUM(W15:W26)</f>
         <v>285180</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" s="9" t="s">
+      <c r="A33" s="6" t="s">
         <v>102</v>
       </c>
     </row>
@@ -2756,8 +2771,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:M53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="H54" sqref="H54"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2776,16 +2791,16 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C3" s="27" t="s">
+      <c r="C3" s="24" t="s">
         <v>103</v>
       </c>
-      <c r="F3" s="27" t="s">
+      <c r="F3" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="I3" s="25" t="s">
+      <c r="I3" s="22" t="s">
         <v>131</v>
       </c>
-      <c r="L3" s="25" t="s">
+      <c r="L3" s="22" t="s">
         <v>135</v>
       </c>
     </row>
@@ -2816,7 +2831,7 @@
       <c r="C5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="35" t="s">
         <v>112</v>
       </c>
       <c r="G5" s="3" t="s">
@@ -2839,7 +2854,7 @@
       <c r="C6" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="35" t="s">
         <v>137</v>
       </c>
       <c r="G6" s="3" t="s">
@@ -2891,10 +2906,10 @@
       <c r="G8" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="I8" s="28" t="s">
+      <c r="I8" s="25" t="s">
         <v>138</v>
       </c>
-      <c r="J8" s="28" t="s">
+      <c r="J8" s="25" t="s">
         <v>139</v>
       </c>
       <c r="L8" s="3" t="s">
@@ -2914,10 +2929,10 @@
       <c r="G9" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="I9" s="28" t="s">
+      <c r="I9" s="25" t="s">
         <v>140</v>
       </c>
-      <c r="J9" s="28" t="s">
+      <c r="J9" s="25" t="s">
         <v>139</v>
       </c>
     </row>
@@ -2955,7 +2970,7 @@
       </c>
     </row>
     <row r="13" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="F13" s="28" t="s">
+      <c r="F13" s="25" t="s">
         <v>120</v>
       </c>
       <c r="G13" s="3" t="s">
@@ -2963,7 +2978,7 @@
       </c>
     </row>
     <row r="14" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="F14" s="28" t="s">
+      <c r="F14" s="25" t="s">
         <v>119</v>
       </c>
       <c r="G14" s="3" t="s">
@@ -2971,7 +2986,7 @@
       </c>
     </row>
     <row r="15" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="F15" s="28" t="s">
+      <c r="F15" s="36" t="s">
         <v>121</v>
       </c>
       <c r="G15" s="3" t="s">
@@ -2979,7 +2994,7 @@
       </c>
     </row>
     <row r="16" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="F16" s="28" t="s">
+      <c r="F16" s="25" t="s">
         <v>122</v>
       </c>
       <c r="G16" s="3" t="s">
@@ -2987,7 +3002,7 @@
       </c>
     </row>
     <row r="17" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F17" s="28" t="s">
+      <c r="F17" s="25" t="s">
         <v>123</v>
       </c>
       <c r="G17" s="3" t="s">
@@ -2995,7 +3010,7 @@
       </c>
     </row>
     <row r="18" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F18" s="28" t="s">
+      <c r="F18" s="25" t="s">
         <v>124</v>
       </c>
       <c r="G18" s="3" t="s">
@@ -3003,7 +3018,7 @@
       </c>
     </row>
     <row r="20" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F20" s="25" t="s">
+      <c r="F20" s="22" t="s">
         <v>142</v>
       </c>
     </row>
@@ -3080,7 +3095,7 @@
       </c>
     </row>
     <row r="30" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F30" s="28" t="s">
+      <c r="F30" s="25" t="s">
         <v>120</v>
       </c>
       <c r="G30" s="3" t="s">
@@ -3088,7 +3103,7 @@
       </c>
     </row>
     <row r="31" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F31" s="28" t="s">
+      <c r="F31" s="25" t="s">
         <v>143</v>
       </c>
       <c r="G31" s="3" t="s">
@@ -3096,7 +3111,7 @@
       </c>
     </row>
     <row r="32" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F32" s="28" t="s">
+      <c r="F32" s="25" t="s">
         <v>122</v>
       </c>
       <c r="G32" s="3" t="s">
@@ -3109,442 +3124,451 @@
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A35" s="29" t="s">
+      <c r="A35" s="26" t="s">
         <v>130</v>
       </c>
-      <c r="B35" s="26" t="s">
+      <c r="B35" s="23" t="s">
         <v>151</v>
       </c>
-      <c r="C35" s="26" t="s">
+      <c r="C35" s="23" t="s">
         <v>152</v>
       </c>
-      <c r="D35" s="26" t="s">
+      <c r="D35" s="23" t="s">
         <v>112</v>
       </c>
-      <c r="E35" s="26" t="s">
+      <c r="E35" s="23" t="s">
         <v>153</v>
       </c>
-      <c r="F35" s="26" t="s">
+      <c r="F35" s="23" t="s">
         <v>154</v>
       </c>
-      <c r="G35" s="26" t="s">
+      <c r="G35" s="23" t="s">
         <v>159</v>
       </c>
-      <c r="H35" s="26" t="s">
+      <c r="H35" s="23" t="s">
         <v>160</v>
       </c>
-      <c r="I35" s="26" t="s">
+      <c r="I35" s="23" t="s">
         <v>155</v>
       </c>
-      <c r="J35" s="26" t="s">
+      <c r="J35" s="23" t="s">
         <v>88</v>
       </c>
-      <c r="K35" s="30" t="s">
+      <c r="K35" s="27" t="s">
         <v>156</v>
       </c>
-      <c r="L35" s="26" t="s">
+      <c r="L35" s="23" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A36" s="31">
+      <c r="A36" s="28">
         <v>43016</v>
       </c>
-      <c r="B36" s="32" t="s">
+      <c r="B36" s="29" t="s">
         <v>148</v>
       </c>
-      <c r="C36" s="32">
+      <c r="C36" s="29">
         <v>2500</v>
       </c>
-      <c r="D36" s="32"/>
-      <c r="E36" s="32" t="s">
+      <c r="D36" s="29"/>
+      <c r="E36" s="29" t="s">
         <v>149</v>
       </c>
-      <c r="F36" s="32">
+      <c r="F36" s="29">
         <v>1</v>
       </c>
-      <c r="G36" s="32">
+      <c r="G36" s="29">
         <v>5.58</v>
       </c>
-      <c r="H36" s="32">
+      <c r="H36" s="29">
         <v>5.58</v>
       </c>
-      <c r="I36" s="32">
+      <c r="I36" s="29">
         <v>5</v>
       </c>
-      <c r="J36" s="32">
+      <c r="J36" s="29">
         <f>H36*I36</f>
         <v>27.9</v>
       </c>
-      <c r="K36" s="32">
+      <c r="K36" s="29">
         <v>8</v>
       </c>
-      <c r="L36" s="33">
+      <c r="L36" s="30">
         <v>8597</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A37" s="31">
+      <c r="A37" s="28">
         <v>43016</v>
       </c>
-      <c r="B37" s="32" t="s">
+      <c r="B37" s="29" t="s">
         <v>148</v>
       </c>
-      <c r="C37" s="32">
+      <c r="C37" s="29">
         <v>2500</v>
       </c>
-      <c r="D37" s="32">
+      <c r="D37" s="29">
         <v>25</v>
       </c>
-      <c r="E37" s="32" t="s">
+      <c r="E37" s="29" t="s">
         <v>157</v>
       </c>
-      <c r="F37" s="32">
+      <c r="F37" s="29">
         <v>1</v>
       </c>
-      <c r="G37" s="32">
+      <c r="G37" s="29">
         <v>6.58</v>
       </c>
-      <c r="H37" s="32">
+      <c r="H37" s="29">
         <v>6.58</v>
       </c>
-      <c r="I37" s="32">
+      <c r="I37" s="29">
         <v>8</v>
       </c>
-      <c r="J37" s="32">
+      <c r="J37" s="29">
         <f>H37*I37</f>
         <v>52.64</v>
       </c>
-      <c r="K37" s="32">
+      <c r="K37" s="29">
         <v>10</v>
       </c>
-      <c r="L37" s="33">
+      <c r="L37" s="30">
         <v>8956</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A38" s="31">
+      <c r="A38" s="28">
         <v>43016</v>
       </c>
-      <c r="B38" s="32" t="s">
+      <c r="B38" s="29" t="s">
         <v>148</v>
       </c>
-      <c r="C38" s="32"/>
-      <c r="D38" s="32"/>
-      <c r="E38" s="32" t="s">
+      <c r="C38" s="29"/>
+      <c r="D38" s="29"/>
+      <c r="E38" s="29" t="s">
         <v>158</v>
       </c>
-      <c r="F38" s="32">
+      <c r="F38" s="29">
         <v>1</v>
       </c>
-      <c r="G38" s="32">
+      <c r="G38" s="29">
         <v>7.58</v>
       </c>
-      <c r="H38" s="32">
+      <c r="H38" s="29">
         <v>6.89</v>
       </c>
-      <c r="I38" s="32">
+      <c r="I38" s="29">
         <v>5</v>
       </c>
-      <c r="J38" s="32">
+      <c r="J38" s="29">
         <f>H38*I38</f>
         <v>34.449999999999996</v>
       </c>
-      <c r="K38" s="32">
+      <c r="K38" s="29">
         <v>10</v>
       </c>
-      <c r="L38" s="33">
+      <c r="L38" s="30">
         <v>5986</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A39" s="31">
+      <c r="A39" s="28">
         <v>43016</v>
       </c>
-      <c r="B39" s="32" t="s">
+      <c r="B39" s="29" t="s">
         <v>148</v>
       </c>
-      <c r="C39" s="32"/>
-      <c r="D39" s="32"/>
-      <c r="E39" s="32" t="s">
+      <c r="C39" s="29"/>
+      <c r="D39" s="29"/>
+      <c r="E39" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="F39" s="32"/>
-      <c r="G39" s="32">
+      <c r="F39" s="29"/>
+      <c r="G39" s="29">
         <v>6.88</v>
       </c>
-      <c r="H39" s="32">
+      <c r="H39" s="29">
         <v>5.58</v>
       </c>
-      <c r="I39" s="32">
+      <c r="I39" s="29">
         <v>0</v>
       </c>
-      <c r="J39" s="32">
+      <c r="J39" s="29">
         <f>H39*I39</f>
         <v>0</v>
       </c>
-      <c r="K39" s="32"/>
-      <c r="L39" s="33">
+      <c r="K39" s="29"/>
+      <c r="L39" s="30">
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A40" s="31"/>
-      <c r="B40" s="32"/>
-      <c r="C40" s="32"/>
-      <c r="D40" s="32"/>
-      <c r="E40" s="32"/>
-      <c r="F40" s="32" t="s">
+      <c r="A40" s="28"/>
+      <c r="B40" s="29"/>
+      <c r="C40" s="29"/>
+      <c r="D40" s="29"/>
+      <c r="E40" s="29"/>
+      <c r="F40" s="29" t="s">
         <v>88</v>
       </c>
-      <c r="G40" s="32"/>
-      <c r="H40" s="32">
+      <c r="G40" s="29"/>
+      <c r="H40" s="29">
         <f>SUM(H36:H39)</f>
         <v>24.630000000000003</v>
       </c>
-      <c r="I40" s="32"/>
-      <c r="J40" s="32">
+      <c r="I40" s="29"/>
+      <c r="J40" s="29">
         <f>SUM(J36:J39)</f>
         <v>114.98999999999998</v>
       </c>
-      <c r="K40" s="32"/>
-      <c r="L40" s="33"/>
+      <c r="K40" s="29"/>
+      <c r="L40" s="30"/>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>30</v>
       </c>
+      <c r="C42" t="s">
+        <v>164</v>
+      </c>
+      <c r="D42" t="s">
+        <v>165</v>
+      </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A43" s="29" t="s">
+      <c r="A43" s="26" t="s">
         <v>130</v>
       </c>
-      <c r="B43" s="26" t="s">
+      <c r="B43" s="23" t="s">
         <v>151</v>
       </c>
-      <c r="C43" s="26" t="s">
+      <c r="C43" s="23" t="s">
         <v>153</v>
       </c>
-      <c r="D43" s="26" t="s">
+      <c r="D43" s="23" t="s">
         <v>154</v>
       </c>
-      <c r="E43" s="26" t="s">
+      <c r="E43" s="23" t="s">
         <v>159</v>
       </c>
-      <c r="F43" s="26" t="s">
+      <c r="F43" s="23" t="s">
         <v>160</v>
       </c>
-      <c r="G43" s="26" t="s">
+      <c r="G43" s="23" t="s">
         <v>155</v>
       </c>
-      <c r="H43" s="26" t="s">
+      <c r="H43" s="23" t="s">
         <v>88</v>
       </c>
-      <c r="I43" s="30" t="s">
+      <c r="I43" s="27" t="s">
         <v>156</v>
       </c>
-      <c r="J43" s="26" t="s">
+      <c r="J43" s="23" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A44" s="31">
+      <c r="A44" s="28">
         <v>43016</v>
       </c>
-      <c r="B44" s="32" t="s">
+      <c r="B44" s="29" t="s">
         <v>148</v>
       </c>
-      <c r="C44" s="32" t="s">
+      <c r="C44" s="29" t="s">
         <v>149</v>
       </c>
-      <c r="D44" s="32">
+      <c r="D44" s="29">
         <v>1</v>
       </c>
-      <c r="E44" s="32">
+      <c r="E44" s="29">
         <v>5.58</v>
       </c>
-      <c r="F44" s="32">
+      <c r="F44" s="29">
         <v>5.58</v>
       </c>
-      <c r="G44" s="32">
+      <c r="G44" s="29">
         <v>5</v>
       </c>
-      <c r="H44" s="32">
+      <c r="H44" s="29">
         <f t="shared" ref="H44:H48" si="0">SUM(H40:H43)</f>
         <v>24.630000000000003</v>
       </c>
-      <c r="I44" s="32">
+      <c r="I44" s="29">
         <v>8</v>
       </c>
-      <c r="J44" s="33">
+      <c r="J44" s="30">
         <v>8597</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A45" s="31">
+      <c r="A45" s="28">
         <v>43016</v>
       </c>
-      <c r="B45" s="32" t="s">
+      <c r="B45" s="29" t="s">
         <v>148</v>
       </c>
-      <c r="C45" s="32" t="s">
+      <c r="C45" s="29" t="s">
         <v>157</v>
       </c>
-      <c r="D45" s="32">
+      <c r="D45" s="29">
         <v>1</v>
       </c>
-      <c r="E45" s="32">
+      <c r="E45" s="29">
         <v>6.58</v>
       </c>
-      <c r="F45" s="32">
+      <c r="F45" s="29">
         <v>6.58</v>
       </c>
-      <c r="G45" s="32">
+      <c r="G45" s="29">
         <v>8</v>
       </c>
-      <c r="H45" s="32">
+      <c r="H45" s="29">
         <f t="shared" si="0"/>
         <v>24.630000000000003</v>
       </c>
-      <c r="I45" s="32">
+      <c r="I45" s="29">
         <v>10</v>
       </c>
-      <c r="J45" s="33">
+      <c r="J45" s="30">
         <v>8956</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A46" s="31">
+      <c r="A46" s="28">
         <v>43016</v>
       </c>
-      <c r="B46" s="32" t="s">
+      <c r="B46" s="29" t="s">
         <v>148</v>
       </c>
-      <c r="C46" s="32" t="s">
+      <c r="C46" s="29" t="s">
         <v>158</v>
       </c>
-      <c r="D46" s="32">
+      <c r="D46" s="29">
         <v>1</v>
       </c>
-      <c r="E46" s="32">
+      <c r="E46" s="29">
         <v>7.58</v>
       </c>
-      <c r="F46" s="32">
+      <c r="F46" s="29">
         <v>6.89</v>
       </c>
-      <c r="G46" s="32">
+      <c r="G46" s="29">
         <v>5</v>
       </c>
-      <c r="H46" s="32">
+      <c r="H46" s="29">
         <f t="shared" si="0"/>
         <v>49.260000000000005</v>
       </c>
-      <c r="I46" s="32">
+      <c r="I46" s="29">
         <v>10</v>
       </c>
-      <c r="J46" s="33">
+      <c r="J46" s="30">
         <v>5986</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A47" s="31">
+      <c r="A47" s="28">
         <v>43016</v>
       </c>
-      <c r="B47" s="32" t="s">
+      <c r="B47" s="29" t="s">
         <v>148</v>
       </c>
-      <c r="C47" s="32" t="s">
+      <c r="C47" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="D47" s="32"/>
-      <c r="E47" s="32">
+      <c r="D47" s="29"/>
+      <c r="E47" s="29">
         <v>6.88</v>
       </c>
-      <c r="F47" s="32">
+      <c r="F47" s="29">
         <v>5.58</v>
       </c>
-      <c r="G47" s="32">
+      <c r="G47" s="29">
         <v>0</v>
       </c>
-      <c r="H47" s="32">
+      <c r="H47" s="29">
         <f t="shared" si="0"/>
         <v>98.52000000000001</v>
       </c>
-      <c r="I47" s="32"/>
-      <c r="J47" s="33">
+      <c r="I47" s="29"/>
+      <c r="J47" s="30">
         <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A48" s="31"/>
-      <c r="B48" s="32"/>
-      <c r="C48" s="32"/>
-      <c r="D48" s="32"/>
-      <c r="E48" s="32" t="s">
+      <c r="A48" s="28"/>
+      <c r="B48" s="29"/>
+      <c r="C48" s="29"/>
+      <c r="D48" s="29"/>
+      <c r="E48" s="29" t="s">
         <v>88</v>
       </c>
-      <c r="F48" s="32">
+      <c r="F48" s="29">
         <f>SUM(F44:F47)</f>
         <v>24.630000000000003</v>
       </c>
-      <c r="G48" s="32"/>
-      <c r="H48" s="32">
+      <c r="G48" s="29"/>
+      <c r="H48" s="29">
         <f t="shared" si="0"/>
         <v>197.04000000000002</v>
       </c>
-      <c r="I48" s="32"/>
-      <c r="J48" s="33"/>
+      <c r="I48" s="29"/>
+      <c r="J48" s="30"/>
     </row>
     <row r="50" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F50" t="s">
+      <c r="F50" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="H50">
+      <c r="G50" s="3"/>
+      <c r="H50" s="3">
         <v>197.04</v>
       </c>
     </row>
     <row r="51" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F51" t="s">
+      <c r="F51" s="3" t="s">
         <v>161</v>
       </c>
       <c r="G51" s="34">
         <v>0.09</v>
       </c>
-      <c r="H51">
+      <c r="H51" s="3">
         <f>ROUND(H50*G51,2)</f>
         <v>17.73</v>
       </c>
     </row>
     <row r="52" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F52" t="s">
+      <c r="F52" s="3" t="s">
         <v>162</v>
       </c>
       <c r="G52" s="34">
         <v>0.09</v>
       </c>
-      <c r="H52">
+      <c r="H52" s="3">
         <f>ROUND(H50*G52,2)</f>
         <v>17.73</v>
       </c>
     </row>
     <row r="53" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F53" t="s">
+      <c r="F53" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="H53">
+      <c r="G53" s="3"/>
+      <c r="H53" s="3">
         <f>ROUND(SUM(H50:H52),2)</f>
         <v>232.5</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
     <ignoredError sqref="J40" calculatedColumn="1"/>
   </ignoredErrors>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId2"/>
   <tableParts count="2">
-    <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
   </tableParts>
 </worksheet>
 </file>

--- a/Silver Inventory Doc/Silver Database Design.xlsx
+++ b/Silver Inventory Doc/Silver Database Design.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18528"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="7530" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Entity" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="181">
   <si>
     <t>Silver</t>
   </si>
@@ -376,9 +376,6 @@
     <t>qty</t>
   </si>
   <si>
-    <t>rate</t>
-  </si>
-  <si>
     <t>rateon</t>
   </si>
   <si>
@@ -394,9 +391,6 @@
     <t>Remark</t>
   </si>
   <si>
-    <t>custDelDate</t>
-  </si>
-  <si>
     <t>artisanReqDate</t>
   </si>
   <si>
@@ -527,13 +521,64 @@
   </si>
   <si>
     <t>RefNo</t>
+  </si>
+  <si>
+    <t>orderDeliveryDate</t>
+  </si>
+  <si>
+    <t>metalRate</t>
+  </si>
+  <si>
+    <t>remark</t>
+  </si>
+  <si>
+    <t>orderType</t>
+  </si>
+  <si>
+    <t>R / C</t>
+  </si>
+  <si>
+    <t>orderDate</t>
+  </si>
+  <si>
+    <t>metalType</t>
+  </si>
+  <si>
+    <t>Iss. Voc. No</t>
+  </si>
+  <si>
+    <t>IssueRate</t>
+  </si>
+  <si>
+    <t>StockInfo</t>
+  </si>
+  <si>
+    <t>OutDate</t>
+  </si>
+  <si>
+    <t>OutType</t>
+  </si>
+  <si>
+    <t>Rate</t>
+  </si>
+  <si>
+    <t>oUTnO</t>
+  </si>
+  <si>
+    <t>Photo</t>
+  </si>
+  <si>
+    <t>Amount</t>
+  </si>
+  <si>
+    <t>Net Total</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -581,8 +626,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -601,8 +654,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="22">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -893,12 +964,23 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
@@ -934,6 +1016,9 @@
     <xf numFmtId="16" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -943,21 +1028,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="30">
-    <dxf>
+  <dxfs count="45">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
-        <right/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
         <top style="thin">
           <color indexed="64"/>
         </top>
@@ -967,6 +1061,52 @@
       </border>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -974,6 +1114,194 @@
         <right style="thin">
           <color indexed="64"/>
         </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
         <top style="thin">
           <color indexed="64"/>
         </top>
@@ -999,6 +1327,7 @@
       </border>
     </dxf>
     <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -1111,10 +1440,9 @@
       </border>
     </dxf>
     <dxf>
+      <numFmt numFmtId="21" formatCode="dd\-mmm"/>
       <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
+        <left/>
         <right style="thin">
           <color indexed="64"/>
         </right>
@@ -1127,12 +1455,53 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="21" formatCode="dd\-mmm"/>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
       <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
         <top style="thin">
           <color indexed="64"/>
         </top>
@@ -1142,53 +1511,13 @@
       </border>
     </dxf>
     <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
+      <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
         <right style="thin">
           <color indexed="64"/>
         </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
         <top style="thin">
           <color indexed="64"/>
         </top>
@@ -1214,7 +1543,22 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -1569,44 +1913,66 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A35:L40" totalsRowShown="0" headerRowDxfId="15" headerRowBorderDxfId="13" tableBorderDxfId="14" totalsRowBorderDxfId="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A35:L40" totalsRowShown="0" headerRowDxfId="44" headerRowBorderDxfId="43" tableBorderDxfId="42" totalsRowBorderDxfId="41">
   <autoFilter ref="A35:L40"/>
   <tableColumns count="12">
-    <tableColumn id="1" name="Date" dataDxfId="11"/>
-    <tableColumn id="2" name="LedgerCode" dataDxfId="10"/>
-    <tableColumn id="3" name="JobNo" dataDxfId="9"/>
-    <tableColumn id="4" name="orderNo" dataDxfId="8"/>
-    <tableColumn id="5" name="ItemCode" dataDxfId="7"/>
-    <tableColumn id="6" name="Qty" dataDxfId="6"/>
-    <tableColumn id="12" name="GrossWt" dataDxfId="5"/>
-    <tableColumn id="7" name="NetWeight" dataDxfId="4"/>
-    <tableColumn id="8" name="MakingRate" dataDxfId="3"/>
-    <tableColumn id="9" name="Total" dataDxfId="2">
+    <tableColumn id="1" name="Date" dataDxfId="40"/>
+    <tableColumn id="2" name="LedgerCode" dataDxfId="39"/>
+    <tableColumn id="3" name="JobNo" dataDxfId="38"/>
+    <tableColumn id="4" name="orderNo" dataDxfId="37"/>
+    <tableColumn id="5" name="ItemCode" dataDxfId="36"/>
+    <tableColumn id="6" name="Qty" dataDxfId="35"/>
+    <tableColumn id="12" name="GrossWt" dataDxfId="34"/>
+    <tableColumn id="7" name="NetWeight" dataDxfId="33"/>
+    <tableColumn id="8" name="MakingRate" dataDxfId="32"/>
+    <tableColumn id="9" name="Total" dataDxfId="31">
       <calculatedColumnFormula>H36*I36</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="SellingRate" dataDxfId="1"/>
-    <tableColumn id="11" name="Barcode" dataDxfId="0"/>
+    <tableColumn id="10" name="SellingRate" dataDxfId="30"/>
+    <tableColumn id="11" name="Barcode" dataDxfId="29"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A43:J48" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A43:J48" totalsRowShown="0" headerRowDxfId="28" headerRowBorderDxfId="27" tableBorderDxfId="26" totalsRowBorderDxfId="25">
   <autoFilter ref="A43:J48"/>
   <tableColumns count="10">
-    <tableColumn id="1" name="Date" dataDxfId="25"/>
-    <tableColumn id="2" name="LedgerCode" dataDxfId="24"/>
-    <tableColumn id="5" name="ItemCode" dataDxfId="23"/>
-    <tableColumn id="6" name="Qty" dataDxfId="22"/>
-    <tableColumn id="12" name="GrossWt" dataDxfId="21"/>
-    <tableColumn id="7" name="NetWeight" dataDxfId="20"/>
-    <tableColumn id="8" name="MakingRate" dataDxfId="19"/>
-    <tableColumn id="9" name="Total" dataDxfId="18">
+    <tableColumn id="1" name="Date" dataDxfId="24"/>
+    <tableColumn id="2" name="LedgerCode" dataDxfId="23"/>
+    <tableColumn id="5" name="ItemCode" dataDxfId="22"/>
+    <tableColumn id="6" name="Qty" dataDxfId="21"/>
+    <tableColumn id="12" name="GrossWt" dataDxfId="20"/>
+    <tableColumn id="7" name="NetWeight" dataDxfId="19"/>
+    <tableColumn id="8" name="MakingRate" dataDxfId="18"/>
+    <tableColumn id="9" name="Total" dataDxfId="17">
       <calculatedColumnFormula>SUM(H40:H43)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="SellingRate" dataDxfId="17"/>
-    <tableColumn id="11" name="Barcode" dataDxfId="16"/>
+    <tableColumn id="10" name="SellingRate" dataDxfId="16"/>
+    <tableColumn id="11" name="Barcode" dataDxfId="15"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table14" displayName="Table14" ref="O35:Y42" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="12" tableBorderDxfId="13" totalsRowBorderDxfId="11">
+  <autoFilter ref="O35:Y42"/>
+  <tableColumns count="11">
+    <tableColumn id="4" name="Barcode" dataDxfId="1"/>
+    <tableColumn id="5" name="ItemCode" dataDxfId="2"/>
+    <tableColumn id="10" name="Photo" dataDxfId="0"/>
+    <tableColumn id="6" name="Qty" dataDxfId="10"/>
+    <tableColumn id="12" name="GrossWt" dataDxfId="9"/>
+    <tableColumn id="7" name="NetWeight" dataDxfId="8"/>
+    <tableColumn id="8" name="IssueRate" dataDxfId="7"/>
+    <tableColumn id="9" name="Total" dataDxfId="6">
+      <calculatedColumnFormula>T36*U36</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="1" name="OutDate" dataDxfId="5"/>
+    <tableColumn id="2" name="OutType" dataDxfId="4"/>
+    <tableColumn id="3" name="oUTnO" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1914,9 +2280,7 @@
   </sheetPr>
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1934,11 +2298,11 @@
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
-      <c r="D1" s="31" t="s">
+      <c r="D1" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="E1" s="32"/>
-      <c r="F1" s="33"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="36"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -1948,7 +2312,7 @@
         <v>2</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>3</v>
@@ -2769,10 +3133,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:M53"/>
+  <dimension ref="A3:Y53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="C41" sqref="C41"/>
+    <sheetView tabSelected="1" topLeftCell="J34" workbookViewId="0">
+      <selection activeCell="O43" sqref="O43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2788,6 +3152,13 @@
     <col min="10" max="10" width="10.28515625" customWidth="1"/>
     <col min="11" max="11" width="13.140625" customWidth="1"/>
     <col min="12" max="12" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="11" customWidth="1"/>
+    <col min="18" max="18" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="15.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="3:13" x14ac:dyDescent="0.25">
@@ -2798,10 +3169,10 @@
         <v>65</v>
       </c>
       <c r="I3" s="22" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L3" s="22" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="4" spans="3:13" x14ac:dyDescent="0.25">
@@ -2812,88 +3183,82 @@
         <v>104</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="I4" s="3" t="s">
         <v>112</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="5" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="35" t="s">
+      <c r="F5" s="32" t="s">
         <v>112</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="6" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C6" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="F6" s="35" t="s">
-        <v>137</v>
+      <c r="F6" s="32" t="s">
+        <v>135</v>
       </c>
       <c r="G6" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="M6" s="3" t="s">
         <v>127</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="L6" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="M6" s="3" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="7" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C7" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="F7" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="G7" s="3" t="s">
+      <c r="I7" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="M7" s="3" t="s">
         <v>127</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="J7" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="L7" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="M7" s="3" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="8" spans="3:13" x14ac:dyDescent="0.25">
@@ -2901,22 +3266,22 @@
         <v>107</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="I8" s="25" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="J8" s="25" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="9" spans="3:13" x14ac:dyDescent="0.25">
@@ -2924,16 +3289,22 @@
         <v>108</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="I9" s="25" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="J9" s="25" t="s">
-        <v>139</v>
+        <v>137</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="M9" s="25" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="10" spans="3:13" x14ac:dyDescent="0.25">
@@ -2941,31 +3312,43 @@
         <v>109</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>129</v>
+        <v>127</v>
+      </c>
+      <c r="I10" s="33" t="s">
+        <v>164</v>
+      </c>
+      <c r="J10" s="33" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="11" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C11" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="F11" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>127</v>
+      <c r="I11" s="33" t="s">
+        <v>170</v>
+      </c>
+      <c r="J11" s="33" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="12" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C12" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="F12" s="25" t="s">
         <v>118</v>
       </c>
       <c r="G12" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="I12" s="33" t="s">
+        <v>165</v>
+      </c>
+      <c r="J12" s="33" t="s">
         <v>127</v>
       </c>
     </row>
@@ -2974,206 +3357,259 @@
         <v>120</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>127</v>
+        <v>128</v>
+      </c>
+      <c r="I13" s="25" t="s">
+        <v>166</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="14" spans="3:13" x14ac:dyDescent="0.25">
       <c r="F14" s="25" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>127</v>
+        <v>128</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="J14" s="25" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="15" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="F15" s="36" t="s">
-        <v>121</v>
+      <c r="F15" s="25" t="s">
+        <v>122</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="16" spans="3:13" x14ac:dyDescent="0.25">
       <c r="F16" s="25" t="s">
-        <v>122</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="17" spans="6:7" x14ac:dyDescent="0.25">
+        <v>134</v>
+      </c>
+      <c r="G16" s="25" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="17" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F17" s="25" t="s">
-        <v>123</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="18" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F18" s="25" t="s">
-        <v>124</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="20" spans="6:7" x14ac:dyDescent="0.25">
+        <v>167</v>
+      </c>
+      <c r="G17" s="25" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="20" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F20" s="22" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="21" spans="6:7" x14ac:dyDescent="0.25">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="21" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F21" s="3" t="s">
         <v>104</v>
       </c>
       <c r="G21" s="3" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="22" spans="6:20" x14ac:dyDescent="0.25">
+      <c r="F22" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="23" spans="6:20" x14ac:dyDescent="0.25">
+      <c r="F23" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="G23" s="3" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="22" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F22" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="23" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F23" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="24" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F24" s="3" t="s">
         <v>113</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="25" spans="6:7" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="25" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F25" s="3" t="s">
         <v>114</v>
       </c>
       <c r="G25" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="26" spans="6:20" x14ac:dyDescent="0.25">
+      <c r="F26" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="27" spans="6:20" x14ac:dyDescent="0.25">
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+    </row>
+    <row r="28" spans="6:20" x14ac:dyDescent="0.25">
+      <c r="F28" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="29" spans="6:20" x14ac:dyDescent="0.25">
+      <c r="F29" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="30" spans="6:20" x14ac:dyDescent="0.25">
+      <c r="F30" s="25" t="s">
+        <v>119</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="31" spans="6:20" x14ac:dyDescent="0.25">
+      <c r="F31" s="25" t="s">
+        <v>141</v>
+      </c>
+      <c r="G31" s="3" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="26" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F26" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="27" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F27" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="G27" s="3" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="28" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F28" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="G28" s="3" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="29" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F29" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="30" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F30" s="25" t="s">
+    <row r="32" spans="6:20" x14ac:dyDescent="0.25">
+      <c r="F32" s="25" t="s">
         <v>120</v>
       </c>
-      <c r="G30" s="3" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="31" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F31" s="25" t="s">
-        <v>143</v>
-      </c>
-      <c r="G31" s="3" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="32" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F32" s="25" t="s">
-        <v>122</v>
-      </c>
       <c r="G32" s="3" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+        <v>128</v>
+      </c>
+      <c r="R32" s="37" t="s">
+        <v>128</v>
+      </c>
+      <c r="S32" s="37" t="s">
+        <v>149</v>
+      </c>
+      <c r="T32" s="37" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="R33" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="34" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="O34" t="s">
+        <v>28</v>
+      </c>
+      <c r="W34" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="35" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A35" s="26" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B35" s="23" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C35" s="23" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D35" s="23" t="s">
         <v>112</v>
       </c>
       <c r="E35" s="23" t="s">
+        <v>151</v>
+      </c>
+      <c r="F35" s="23" t="s">
+        <v>152</v>
+      </c>
+      <c r="G35" s="23" t="s">
+        <v>157</v>
+      </c>
+      <c r="H35" s="23" t="s">
+        <v>158</v>
+      </c>
+      <c r="I35" s="23" t="s">
         <v>153</v>
-      </c>
-      <c r="F35" s="23" t="s">
-        <v>154</v>
-      </c>
-      <c r="G35" s="23" t="s">
-        <v>159</v>
-      </c>
-      <c r="H35" s="23" t="s">
-        <v>160</v>
-      </c>
-      <c r="I35" s="23" t="s">
-        <v>155</v>
       </c>
       <c r="J35" s="23" t="s">
         <v>88</v>
       </c>
       <c r="K35" s="27" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="L35" s="23" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+        <v>148</v>
+      </c>
+      <c r="O35" s="23" t="s">
+        <v>148</v>
+      </c>
+      <c r="P35" s="23" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q35" s="23" t="s">
+        <v>178</v>
+      </c>
+      <c r="R35" s="23" t="s">
+        <v>152</v>
+      </c>
+      <c r="S35" s="23" t="s">
+        <v>157</v>
+      </c>
+      <c r="T35" s="23" t="s">
+        <v>158</v>
+      </c>
+      <c r="U35" s="23" t="s">
+        <v>172</v>
+      </c>
+      <c r="V35" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="W35" s="23" t="s">
+        <v>174</v>
+      </c>
+      <c r="X35" s="23" t="s">
+        <v>175</v>
+      </c>
+      <c r="Y35" s="23" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="36" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A36" s="28">
         <v>43016</v>
       </c>
       <c r="B36" s="29" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C36" s="29">
         <v>2500</v>
       </c>
       <c r="D36" s="29"/>
       <c r="E36" s="29" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F36" s="29">
         <v>1</v>
@@ -3197,13 +3633,43 @@
       <c r="L36" s="30">
         <v>8597</v>
       </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="O36" s="38">
+        <v>2568</v>
+      </c>
+      <c r="P36" s="38" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q36" s="38"/>
+      <c r="R36" s="38">
+        <v>1</v>
+      </c>
+      <c r="S36" s="38">
+        <v>5.58</v>
+      </c>
+      <c r="T36" s="38">
+        <v>5.58</v>
+      </c>
+      <c r="U36" s="29">
+        <v>5</v>
+      </c>
+      <c r="V36" s="38">
+        <f>T36*U36</f>
+        <v>27.9</v>
+      </c>
+      <c r="W36" s="40" t="s">
+        <v>128</v>
+      </c>
+      <c r="X36" s="40" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y36" s="40"/>
+    </row>
+    <row r="37" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A37" s="28">
         <v>43016</v>
       </c>
       <c r="B37" s="29" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C37" s="29">
         <v>2500</v>
@@ -3212,7 +3678,7 @@
         <v>25</v>
       </c>
       <c r="E37" s="29" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F37" s="29">
         <v>1</v>
@@ -3236,18 +3702,44 @@
       <c r="L37" s="30">
         <v>8956</v>
       </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="O37" s="38">
+        <v>5896</v>
+      </c>
+      <c r="P37" s="38" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q37" s="38"/>
+      <c r="R37" s="38">
+        <v>1</v>
+      </c>
+      <c r="S37" s="38">
+        <v>6.58</v>
+      </c>
+      <c r="T37" s="38">
+        <v>6.58</v>
+      </c>
+      <c r="U37" s="29">
+        <v>8</v>
+      </c>
+      <c r="V37" s="38">
+        <f>T37*U37</f>
+        <v>52.64</v>
+      </c>
+      <c r="W37" s="40"/>
+      <c r="X37" s="40"/>
+      <c r="Y37" s="40"/>
+    </row>
+    <row r="38" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A38" s="28">
         <v>43016</v>
       </c>
       <c r="B38" s="29" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C38" s="29"/>
       <c r="D38" s="29"/>
       <c r="E38" s="29" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="F38" s="29">
         <v>1</v>
@@ -3271,13 +3763,39 @@
       <c r="L38" s="30">
         <v>5986</v>
       </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="O38" s="38">
+        <v>6587</v>
+      </c>
+      <c r="P38" s="38" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q38" s="38"/>
+      <c r="R38" s="38">
+        <v>1</v>
+      </c>
+      <c r="S38" s="38">
+        <v>7.58</v>
+      </c>
+      <c r="T38" s="38">
+        <v>6.89</v>
+      </c>
+      <c r="U38" s="29">
+        <v>5</v>
+      </c>
+      <c r="V38" s="38">
+        <f>T38*U38</f>
+        <v>34.449999999999996</v>
+      </c>
+      <c r="W38" s="40"/>
+      <c r="X38" s="40"/>
+      <c r="Y38" s="40"/>
+    </row>
+    <row r="39" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A39" s="28">
         <v>43016</v>
       </c>
       <c r="B39" s="29" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C39" s="29"/>
       <c r="D39" s="29"/>
@@ -3302,8 +3820,32 @@
       <c r="L39" s="30">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="O39" s="38"/>
+      <c r="P39" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q39" s="39"/>
+      <c r="R39" s="39">
+        <v>0</v>
+      </c>
+      <c r="S39" s="39">
+        <v>6.88</v>
+      </c>
+      <c r="T39" s="39">
+        <v>5.58</v>
+      </c>
+      <c r="U39" s="29">
+        <v>0</v>
+      </c>
+      <c r="V39" s="38">
+        <f>T39*U39</f>
+        <v>0</v>
+      </c>
+      <c r="W39" s="40"/>
+      <c r="X39" s="40"/>
+      <c r="Y39" s="40"/>
+    </row>
+    <row r="40" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A40" s="28"/>
       <c r="B40" s="29"/>
       <c r="C40" s="29"/>
@@ -3324,59 +3866,120 @@
       </c>
       <c r="K40" s="29"/>
       <c r="L40" s="30"/>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="O40" s="38"/>
+      <c r="P40" s="38"/>
+      <c r="Q40" s="38"/>
+      <c r="R40" s="38"/>
+      <c r="S40" s="38"/>
+      <c r="T40" s="38"/>
+      <c r="U40" s="29"/>
+      <c r="V40" s="38">
+        <f>T40*U40</f>
+        <v>0</v>
+      </c>
+      <c r="W40" s="40"/>
+      <c r="X40" s="40"/>
+      <c r="Y40" s="40"/>
+    </row>
+    <row r="41" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="O41" s="38"/>
+      <c r="P41" s="38"/>
+      <c r="Q41" s="38"/>
+      <c r="R41" s="38" t="s">
+        <v>88</v>
+      </c>
+      <c r="S41" s="38"/>
+      <c r="T41" s="38">
+        <f>SUM(T36:T39)</f>
+        <v>24.630000000000003</v>
+      </c>
+      <c r="U41" s="29"/>
+      <c r="V41" s="38">
+        <f>SUM(V36:V39)</f>
+        <v>114.98999999999998</v>
+      </c>
+      <c r="W41" s="40"/>
+      <c r="X41" s="40"/>
+      <c r="Y41" s="40"/>
+    </row>
+    <row r="42" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>30</v>
       </c>
       <c r="C42" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D42" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+        <v>163</v>
+      </c>
+      <c r="O42" s="38"/>
+      <c r="P42" s="38"/>
+      <c r="Q42" s="38"/>
+      <c r="R42" s="38"/>
+      <c r="S42" s="38"/>
+      <c r="T42" s="38"/>
+      <c r="U42" s="29"/>
+      <c r="V42" s="38">
+        <v>114.99</v>
+      </c>
+      <c r="W42" s="38"/>
+      <c r="X42" s="38"/>
+      <c r="Y42" s="38"/>
+    </row>
+    <row r="43" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A43" s="26" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B43" s="23" t="s">
+        <v>149</v>
+      </c>
+      <c r="C43" s="23" t="s">
         <v>151</v>
       </c>
-      <c r="C43" s="23" t="s">
+      <c r="D43" s="23" t="s">
+        <v>152</v>
+      </c>
+      <c r="E43" s="23" t="s">
+        <v>157</v>
+      </c>
+      <c r="F43" s="23" t="s">
+        <v>158</v>
+      </c>
+      <c r="G43" s="23" t="s">
         <v>153</v>
-      </c>
-      <c r="D43" s="23" t="s">
-        <v>154</v>
-      </c>
-      <c r="E43" s="23" t="s">
-        <v>159</v>
-      </c>
-      <c r="F43" s="23" t="s">
-        <v>160</v>
-      </c>
-      <c r="G43" s="23" t="s">
-        <v>155</v>
       </c>
       <c r="H43" s="23" t="s">
         <v>88</v>
       </c>
       <c r="I43" s="27" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="J43" s="23" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+        <v>148</v>
+      </c>
+      <c r="S43" t="s">
+        <v>159</v>
+      </c>
+      <c r="T43" t="s">
+        <v>176</v>
+      </c>
+      <c r="U43" t="s">
+        <v>179</v>
+      </c>
+      <c r="V43">
+        <f>ROUND(V42*3%,2)</f>
+        <v>3.45</v>
+      </c>
+    </row>
+    <row r="44" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A44" s="28">
         <v>43016</v>
       </c>
       <c r="B44" s="29" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C44" s="29" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D44" s="29">
         <v>1</v>
@@ -3400,16 +4003,29 @@
       <c r="J44" s="30">
         <v>8597</v>
       </c>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="S44" t="s">
+        <v>160</v>
+      </c>
+      <c r="T44" t="s">
+        <v>176</v>
+      </c>
+      <c r="U44" t="s">
+        <v>179</v>
+      </c>
+      <c r="V44">
+        <f>ROUND(V42*3%,2)</f>
+        <v>3.45</v>
+      </c>
+    </row>
+    <row r="45" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A45" s="28">
         <v>43016</v>
       </c>
       <c r="B45" s="29" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C45" s="29" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D45" s="29">
         <v>1</v>
@@ -3434,15 +4050,15 @@
         <v>8956</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A46" s="28">
         <v>43016</v>
       </c>
       <c r="B46" s="29" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C46" s="29" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D46" s="29">
         <v>1</v>
@@ -3466,13 +4082,20 @@
       <c r="J46" s="30">
         <v>5986</v>
       </c>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="S46" t="s">
+        <v>180</v>
+      </c>
+      <c r="V46">
+        <f>SUM(V42:V45)</f>
+        <v>121.89</v>
+      </c>
+    </row>
+    <row r="47" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A47" s="28">
         <v>43016</v>
       </c>
       <c r="B47" s="29" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C47" s="29" t="s">
         <v>0</v>
@@ -3496,7 +4119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A48" s="28"/>
       <c r="B48" s="29"/>
       <c r="C48" s="29"/>
@@ -3527,9 +4150,9 @@
     </row>
     <row r="51" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F51" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="G51" s="34">
+        <v>159</v>
+      </c>
+      <c r="G51" s="31">
         <v>0.09</v>
       </c>
       <c r="H51" s="3">
@@ -3539,9 +4162,9 @@
     </row>
     <row r="52" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F52" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="G52" s="34">
+        <v>160</v>
+      </c>
+      <c r="G52" s="31">
         <v>0.09</v>
       </c>
       <c r="H52" s="3">
@@ -3551,7 +4174,7 @@
     </row>
     <row r="53" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F53" s="3" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G53" s="3"/>
       <c r="H53" s="3">
@@ -3566,9 +4189,10 @@
     <ignoredError sqref="J40" calculatedColumn="1"/>
   </ignoredErrors>
   <drawing r:id="rId2"/>
-  <tableParts count="2">
+  <tableParts count="3">
     <tablePart r:id="rId3"/>
     <tablePart r:id="rId4"/>
+    <tablePart r:id="rId5"/>
   </tableParts>
 </worksheet>
 </file>
@@ -3596,7 +4220,7 @@
   <dimension ref="A1:T6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:G8"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Silver Inventory Doc/Silver Database Design.xlsx
+++ b/Silver Inventory Doc/Silver Database Design.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="182">
   <si>
     <t>Silver</t>
   </si>
@@ -572,6 +572,9 @@
   </si>
   <si>
     <t>Net Total</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -1019,6 +1022,10 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1028,10 +1035,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1056,8 +1059,46 @@
           <color indexed="64"/>
         </top>
         <bottom/>
-        <vertical/>
-        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
       </border>
     </dxf>
     <dxf>
@@ -1081,6 +1122,20 @@
       </border>
     </dxf>
     <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -1107,7 +1162,27 @@
           <bgColor theme="0" tint="-0.14999847407452621"/>
         </patternFill>
       </fill>
-      <border diagonalUp="0" diagonalDown="0">
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -1138,26 +1213,8 @@
           <color indexed="64"/>
         </top>
         <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
+        <vertical/>
+        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -1181,20 +1238,6 @@
       </border>
     </dxf>
     <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -1215,13 +1258,14 @@
       </border>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -1231,54 +1275,13 @@
         <top style="thin">
           <color indexed="64"/>
         </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
       </border>
     </dxf>
     <dxf>
       <border outline="0">
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
@@ -1957,22 +1960,22 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table14" displayName="Table14" ref="O35:Y42" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="12" tableBorderDxfId="13" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table14" displayName="Table14" ref="O35:Y42" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <autoFilter ref="O35:Y42"/>
   <tableColumns count="11">
-    <tableColumn id="4" name="Barcode" dataDxfId="1"/>
-    <tableColumn id="5" name="ItemCode" dataDxfId="2"/>
-    <tableColumn id="10" name="Photo" dataDxfId="0"/>
-    <tableColumn id="6" name="Qty" dataDxfId="10"/>
-    <tableColumn id="12" name="GrossWt" dataDxfId="9"/>
-    <tableColumn id="7" name="NetWeight" dataDxfId="8"/>
-    <tableColumn id="8" name="IssueRate" dataDxfId="7"/>
-    <tableColumn id="9" name="Total" dataDxfId="6">
+    <tableColumn id="4" name="Barcode" dataDxfId="10"/>
+    <tableColumn id="5" name="ItemCode" dataDxfId="9"/>
+    <tableColumn id="10" name="Photo" dataDxfId="8"/>
+    <tableColumn id="6" name="Qty" dataDxfId="7"/>
+    <tableColumn id="12" name="GrossWt" dataDxfId="6"/>
+    <tableColumn id="7" name="NetWeight" dataDxfId="5"/>
+    <tableColumn id="8" name="IssueRate" dataDxfId="4"/>
+    <tableColumn id="9" name="Total" dataDxfId="3">
       <calculatedColumnFormula>T36*U36</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="1" name="OutDate" dataDxfId="5"/>
-    <tableColumn id="2" name="OutType" dataDxfId="4"/>
-    <tableColumn id="3" name="oUTnO" dataDxfId="3"/>
+    <tableColumn id="1" name="OutDate" dataDxfId="2"/>
+    <tableColumn id="2" name="OutType" dataDxfId="1"/>
+    <tableColumn id="3" name="oUTnO" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2298,11 +2301,11 @@
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
-      <c r="D1" s="34" t="s">
+      <c r="D1" s="38" t="s">
         <v>49</v>
       </c>
-      <c r="E1" s="35"/>
-      <c r="F1" s="36"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="40"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -3136,7 +3139,7 @@
   <dimension ref="A3:Y53"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="J34" workbookViewId="0">
-      <selection activeCell="O43" sqref="O43"/>
+      <selection activeCell="O45" sqref="O45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3500,13 +3503,13 @@
       <c r="G32" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="R32" s="37" t="s">
+      <c r="R32" s="34" t="s">
         <v>128</v>
       </c>
-      <c r="S32" s="37" t="s">
+      <c r="S32" s="34" t="s">
         <v>149</v>
       </c>
-      <c r="T32" s="37" t="s">
+      <c r="T32" s="34" t="s">
         <v>171</v>
       </c>
     </row>
@@ -3633,36 +3636,36 @@
       <c r="L36" s="30">
         <v>8597</v>
       </c>
-      <c r="O36" s="38">
+      <c r="O36" s="35">
         <v>2568</v>
       </c>
-      <c r="P36" s="38" t="s">
+      <c r="P36" s="35" t="s">
         <v>147</v>
       </c>
-      <c r="Q36" s="38"/>
-      <c r="R36" s="38">
+      <c r="Q36" s="35"/>
+      <c r="R36" s="35">
         <v>1</v>
       </c>
-      <c r="S36" s="38">
+      <c r="S36" s="35">
         <v>5.58</v>
       </c>
-      <c r="T36" s="38">
+      <c r="T36" s="35">
         <v>5.58</v>
       </c>
       <c r="U36" s="29">
         <v>5</v>
       </c>
-      <c r="V36" s="38">
+      <c r="V36" s="35">
         <f>T36*U36</f>
         <v>27.9</v>
       </c>
-      <c r="W36" s="40" t="s">
+      <c r="W36" s="37" t="s">
         <v>128</v>
       </c>
-      <c r="X36" s="40" t="s">
+      <c r="X36" s="37" t="s">
         <v>80</v>
       </c>
-      <c r="Y36" s="40"/>
+      <c r="Y36" s="37"/>
     </row>
     <row r="37" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A37" s="28">
@@ -3702,32 +3705,32 @@
       <c r="L37" s="30">
         <v>8956</v>
       </c>
-      <c r="O37" s="38">
+      <c r="O37" s="35">
         <v>5896</v>
       </c>
-      <c r="P37" s="38" t="s">
+      <c r="P37" s="35" t="s">
         <v>155</v>
       </c>
-      <c r="Q37" s="38"/>
-      <c r="R37" s="38">
+      <c r="Q37" s="35"/>
+      <c r="R37" s="35">
         <v>1</v>
       </c>
-      <c r="S37" s="38">
+      <c r="S37" s="35">
         <v>6.58</v>
       </c>
-      <c r="T37" s="38">
+      <c r="T37" s="35">
         <v>6.58</v>
       </c>
       <c r="U37" s="29">
         <v>8</v>
       </c>
-      <c r="V37" s="38">
+      <c r="V37" s="35">
         <f>T37*U37</f>
         <v>52.64</v>
       </c>
-      <c r="W37" s="40"/>
-      <c r="X37" s="40"/>
-      <c r="Y37" s="40"/>
+      <c r="W37" s="37"/>
+      <c r="X37" s="37"/>
+      <c r="Y37" s="37"/>
     </row>
     <row r="38" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A38" s="28">
@@ -3763,32 +3766,32 @@
       <c r="L38" s="30">
         <v>5986</v>
       </c>
-      <c r="O38" s="38">
+      <c r="O38" s="35">
         <v>6587</v>
       </c>
-      <c r="P38" s="38" t="s">
+      <c r="P38" s="35" t="s">
         <v>156</v>
       </c>
-      <c r="Q38" s="38"/>
-      <c r="R38" s="38">
+      <c r="Q38" s="35"/>
+      <c r="R38" s="35">
         <v>1</v>
       </c>
-      <c r="S38" s="38">
+      <c r="S38" s="35">
         <v>7.58</v>
       </c>
-      <c r="T38" s="38">
+      <c r="T38" s="35">
         <v>6.89</v>
       </c>
       <c r="U38" s="29">
         <v>5</v>
       </c>
-      <c r="V38" s="38">
+      <c r="V38" s="35">
         <f>T38*U38</f>
         <v>34.449999999999996</v>
       </c>
-      <c r="W38" s="40"/>
-      <c r="X38" s="40"/>
-      <c r="Y38" s="40"/>
+      <c r="W38" s="37"/>
+      <c r="X38" s="37"/>
+      <c r="Y38" s="37"/>
     </row>
     <row r="39" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A39" s="28">
@@ -3820,30 +3823,30 @@
       <c r="L39" s="30">
         <v>0</v>
       </c>
-      <c r="O39" s="38"/>
-      <c r="P39" s="39" t="s">
+      <c r="O39" s="35"/>
+      <c r="P39" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="Q39" s="39"/>
-      <c r="R39" s="39">
+      <c r="Q39" s="36"/>
+      <c r="R39" s="36">
         <v>0</v>
       </c>
-      <c r="S39" s="39">
+      <c r="S39" s="36">
         <v>6.88</v>
       </c>
-      <c r="T39" s="39">
+      <c r="T39" s="36">
         <v>5.58</v>
       </c>
       <c r="U39" s="29">
         <v>0</v>
       </c>
-      <c r="V39" s="38">
+      <c r="V39" s="35">
         <f>T39*U39</f>
         <v>0</v>
       </c>
-      <c r="W39" s="40"/>
-      <c r="X39" s="40"/>
-      <c r="Y39" s="40"/>
+      <c r="W39" s="37"/>
+      <c r="X39" s="37"/>
+      <c r="Y39" s="37"/>
     </row>
     <row r="40" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A40" s="28"/>
@@ -3866,41 +3869,41 @@
       </c>
       <c r="K40" s="29"/>
       <c r="L40" s="30"/>
-      <c r="O40" s="38"/>
-      <c r="P40" s="38"/>
-      <c r="Q40" s="38"/>
-      <c r="R40" s="38"/>
-      <c r="S40" s="38"/>
-      <c r="T40" s="38"/>
+      <c r="O40" s="35"/>
+      <c r="P40" s="35"/>
+      <c r="Q40" s="35"/>
+      <c r="R40" s="35"/>
+      <c r="S40" s="35"/>
+      <c r="T40" s="35"/>
       <c r="U40" s="29"/>
-      <c r="V40" s="38">
+      <c r="V40" s="35">
         <f>T40*U40</f>
         <v>0</v>
       </c>
-      <c r="W40" s="40"/>
-      <c r="X40" s="40"/>
-      <c r="Y40" s="40"/>
+      <c r="W40" s="37"/>
+      <c r="X40" s="37"/>
+      <c r="Y40" s="37"/>
     </row>
     <row r="41" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="O41" s="38"/>
-      <c r="P41" s="38"/>
-      <c r="Q41" s="38"/>
-      <c r="R41" s="38" t="s">
+      <c r="O41" s="35"/>
+      <c r="P41" s="35"/>
+      <c r="Q41" s="35"/>
+      <c r="R41" s="35" t="s">
         <v>88</v>
       </c>
-      <c r="S41" s="38"/>
-      <c r="T41" s="38">
+      <c r="S41" s="35"/>
+      <c r="T41" s="35">
         <f>SUM(T36:T39)</f>
         <v>24.630000000000003</v>
       </c>
       <c r="U41" s="29"/>
-      <c r="V41" s="38">
+      <c r="V41" s="35">
         <f>SUM(V36:V39)</f>
         <v>114.98999999999998</v>
       </c>
-      <c r="W41" s="40"/>
-      <c r="X41" s="40"/>
-      <c r="Y41" s="40"/>
+      <c r="W41" s="37"/>
+      <c r="X41" s="37"/>
+      <c r="Y41" s="37"/>
     </row>
     <row r="42" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
@@ -3912,19 +3915,19 @@
       <c r="D42" t="s">
         <v>163</v>
       </c>
-      <c r="O42" s="38"/>
-      <c r="P42" s="38"/>
-      <c r="Q42" s="38"/>
-      <c r="R42" s="38"/>
-      <c r="S42" s="38"/>
-      <c r="T42" s="38"/>
+      <c r="O42" s="35"/>
+      <c r="P42" s="35"/>
+      <c r="Q42" s="35"/>
+      <c r="R42" s="35"/>
+      <c r="S42" s="35"/>
+      <c r="T42" s="35"/>
       <c r="U42" s="29"/>
-      <c r="V42" s="38">
+      <c r="V42" s="35">
         <v>114.99</v>
       </c>
-      <c r="W42" s="38"/>
-      <c r="X42" s="38"/>
-      <c r="Y42" s="38"/>
+      <c r="W42" s="35"/>
+      <c r="X42" s="35"/>
+      <c r="Y42" s="35"/>
     </row>
     <row r="43" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A43" s="26" t="s">
@@ -4002,6 +4005,9 @@
       </c>
       <c r="J44" s="30">
         <v>8597</v>
+      </c>
+      <c r="O44" t="s">
+        <v>181</v>
       </c>
       <c r="S44" t="s">
         <v>160</v>

--- a/Silver Inventory Doc/Silver Database Design.xlsx
+++ b/Silver Inventory Doc/Silver Database Design.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18528"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="7530" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="7530" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Entity" sheetId="1" r:id="rId1"/>
@@ -17,6 +17,7 @@
     <sheet name="ER Diagram" sheetId="5" r:id="rId3"/>
     <sheet name="Report" sheetId="3" r:id="rId4"/>
     <sheet name="Example" sheetId="4" r:id="rId5"/>
+    <sheet name="TimeLine" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <fileRecoveryPr autoRecover="0"/>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="194">
   <si>
     <t>Silver</t>
   </si>
@@ -575,13 +576,49 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Pending Task</t>
+  </si>
+  <si>
+    <t>Master Form</t>
+  </si>
+  <si>
+    <t>Issue To Karigar</t>
+  </si>
+  <si>
+    <t>Assignee</t>
+  </si>
+  <si>
+    <t>Manish</t>
+  </si>
+  <si>
+    <t>Rakesh</t>
+  </si>
+  <si>
+    <t>Tentative Dates</t>
+  </si>
+  <si>
+    <t>Trial Balance</t>
+  </si>
+  <si>
+    <t>Reporting (Print, Export, Email)</t>
+  </si>
+  <si>
+    <t>Cron Job</t>
+  </si>
+  <si>
+    <t>mail /sms</t>
+  </si>
+  <si>
+    <t>your order is ready to pickup</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -637,8 +674,23 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -675,6 +727,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="23">
     <border>
@@ -983,7 +1041,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
@@ -1035,6 +1093,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -3138,8 +3199,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:Y53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J34" workbookViewId="0">
-      <selection activeCell="O45" sqref="O45"/>
+    <sheetView topLeftCell="J28" workbookViewId="0">
+      <selection activeCell="P46" sqref="P46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4346,4 +4407,179 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:K19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="58.140625" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" customWidth="1"/>
+    <col min="4" max="4" width="20.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:11" ht="21" x14ac:dyDescent="0.35">
+      <c r="B2" s="43" t="s">
+        <v>182</v>
+      </c>
+      <c r="C2" s="43" t="s">
+        <v>185</v>
+      </c>
+      <c r="D2" s="43" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B3" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="D3" s="42">
+        <v>43094</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="D4" s="42">
+        <v>43093</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B5" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="D5" s="42">
+        <v>43095</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B6" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="D6" s="42">
+        <v>43107</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B7" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="D7" s="42">
+        <v>43107</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B8" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="D8" s="42">
+        <v>43094</v>
+      </c>
+      <c r="J8" t="s">
+        <v>192</v>
+      </c>
+      <c r="K8" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B9" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="D9" s="42">
+        <v>43099</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B10" s="41" t="s">
+        <v>190</v>
+      </c>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B11" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="D11" s="42">
+        <v>43107</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B14" s="41" t="s">
+        <v>191</v>
+      </c>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Silver Inventory Doc/Silver Database Design.xlsx
+++ b/Silver Inventory Doc/Silver Database Design.xlsx
@@ -1,25 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18730"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\Disk 2\silver_git\silver\Silver Inventory Doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Git_Silver\silver\Silver Inventory Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="7530" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="7530" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Entity" sheetId="1" r:id="rId1"/>
     <sheet name="Transactions" sheetId="2" r:id="rId2"/>
     <sheet name="ER Diagram" sheetId="5" r:id="rId3"/>
-    <sheet name="Report" sheetId="3" r:id="rId4"/>
-    <sheet name="Example" sheetId="4" r:id="rId5"/>
-    <sheet name="TimeLine" sheetId="6" r:id="rId6"/>
+    <sheet name="Sheet1" sheetId="7" r:id="rId4"/>
+    <sheet name="Report" sheetId="3" r:id="rId5"/>
+    <sheet name="Example" sheetId="4" r:id="rId6"/>
+    <sheet name="TimeLine" sheetId="6" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <fileRecoveryPr autoRecover="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="202">
   <si>
     <t>Silver</t>
   </si>
@@ -612,12 +613,36 @@
   </si>
   <si>
     <t>your order is ready to pickup</t>
+  </si>
+  <si>
+    <t>Transaction type</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>IN</t>
+  </si>
+  <si>
+    <t>OUT</t>
+  </si>
+  <si>
+    <t>MOBILE</t>
+  </si>
+  <si>
+    <t>Search</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1041,7 +1066,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
@@ -1084,6 +1109,9 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1093,9 +1121,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1504,7 +1530,7 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="21" formatCode="dd\-mmm"/>
+      <numFmt numFmtId="164" formatCode="dd\-mmm"/>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
         <right style="thin">
@@ -1735,7 +1761,7 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="21" formatCode="dd\-mmm"/>
+      <numFmt numFmtId="164" formatCode="dd\-mmm"/>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
         <right style="thin">
@@ -1829,7 +1855,7 @@
         <xdr:cNvPr id="3" name="Straight Arrow Connector 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41C739B8-841D-4DF6-A220-AA9C7CD9CDAA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41C739B8-841D-4DF6-A220-AA9C7CD9CDAA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1882,7 +1908,7 @@
         <xdr:cNvPr id="10" name="Connector: Elbow 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CD2556BA-ADA4-44AC-85F9-67BB72CB0F38}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CD2556BA-ADA4-44AC-85F9-67BB72CB0F38}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1938,7 +1964,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F16D2EBA-661D-4756-8F53-88D5A741A643}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F16D2EBA-661D-4756-8F53-88D5A741A643}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2362,11 +2388,11 @@
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
-      <c r="D1" s="38" t="s">
+      <c r="D1" s="41" t="s">
         <v>49</v>
       </c>
-      <c r="E1" s="39"/>
-      <c r="F1" s="40"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="43"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -2519,8 +2545,8 @@
   </sheetPr>
   <dimension ref="A2:AC33"/>
   <sheetViews>
-    <sheetView topLeftCell="E6" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+    <sheetView topLeftCell="H20" workbookViewId="0">
+      <selection activeCell="U42" sqref="U42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3199,8 +3225,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:Y53"/>
   <sheetViews>
-    <sheetView topLeftCell="J28" workbookViewId="0">
-      <selection activeCell="P46" sqref="P46"/>
+    <sheetView topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="M25" sqref="M25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3214,7 +3240,7 @@
     <col min="8" max="8" width="13.7109375" customWidth="1"/>
     <col min="9" max="9" width="24.140625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10.28515625" customWidth="1"/>
-    <col min="11" max="11" width="13.140625" customWidth="1"/>
+    <col min="11" max="11" width="15.5703125" customWidth="1"/>
     <col min="12" max="12" width="19.42578125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="16" max="17" width="11" customWidth="1"/>
@@ -3480,6 +3506,9 @@
       <c r="G21" s="3" t="s">
         <v>123</v>
       </c>
+      <c r="K21" t="s">
+        <v>194</v>
+      </c>
     </row>
     <row r="22" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F22" s="3" t="s">
@@ -3488,6 +3517,15 @@
       <c r="G22" s="3" t="s">
         <v>124</v>
       </c>
+      <c r="K22" t="s">
+        <v>29</v>
+      </c>
+      <c r="L22" t="s">
+        <v>66</v>
+      </c>
+      <c r="M22" t="s">
+        <v>198</v>
+      </c>
     </row>
     <row r="23" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F23" s="3" t="s">
@@ -3496,6 +3534,15 @@
       <c r="G23" s="3" t="s">
         <v>125</v>
       </c>
+      <c r="K23" t="s">
+        <v>28</v>
+      </c>
+      <c r="L23" t="s">
+        <v>195</v>
+      </c>
+      <c r="M23" t="s">
+        <v>199</v>
+      </c>
     </row>
     <row r="24" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F24" s="3" t="s">
@@ -3504,6 +3551,15 @@
       <c r="G24" s="3" t="s">
         <v>125</v>
       </c>
+      <c r="K24" t="s">
+        <v>30</v>
+      </c>
+      <c r="L24" t="s">
+        <v>196</v>
+      </c>
+      <c r="M24" t="s">
+        <v>198</v>
+      </c>
     </row>
     <row r="25" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F25" s="3" t="s">
@@ -3511,6 +3567,15 @@
       </c>
       <c r="G25" s="3" t="s">
         <v>126</v>
+      </c>
+      <c r="K25" t="s">
+        <v>31</v>
+      </c>
+      <c r="L25" t="s">
+        <v>197</v>
+      </c>
+      <c r="M25" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="26" spans="6:20" x14ac:dyDescent="0.25">
@@ -4266,6 +4331,97 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="F1" s="3"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="44"/>
+      <c r="B3" s="44"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="44"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="44"/>
+      <c r="B4" s="44"/>
+      <c r="C4" s="44"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="44"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="44"/>
+      <c r="B5" s="44"/>
+      <c r="C5" s="44"/>
+      <c r="D5" s="44"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="44"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="44"/>
+      <c r="B6" s="44"/>
+      <c r="C6" s="44"/>
+      <c r="D6" s="44"/>
+      <c r="E6" s="44"/>
+      <c r="F6" s="44"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="44"/>
+      <c r="B7" s="44"/>
+      <c r="C7" s="44"/>
+      <c r="D7" s="44"/>
+      <c r="E7" s="44"/>
+      <c r="F7" s="44"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="44"/>
+      <c r="B8" s="44"/>
+      <c r="C8" s="44"/>
+      <c r="D8" s="44"/>
+      <c r="E8" s="44"/>
+      <c r="F8" s="44"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF0070C0"/>
   </sheetPr>
@@ -4279,7 +4435,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF79DC"/>
@@ -4409,12 +4565,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:K19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4425,13 +4581,13 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="21" x14ac:dyDescent="0.35">
-      <c r="B2" s="43" t="s">
+      <c r="B2" s="40" t="s">
         <v>182</v>
       </c>
-      <c r="C2" s="43" t="s">
+      <c r="C2" s="40" t="s">
         <v>185</v>
       </c>
-      <c r="D2" s="43" t="s">
+      <c r="D2" s="40" t="s">
         <v>188</v>
       </c>
     </row>
@@ -4442,7 +4598,7 @@
       <c r="C3" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="D3" s="42">
+      <c r="D3" s="39">
         <v>43094</v>
       </c>
     </row>
@@ -4453,7 +4609,7 @@
       <c r="C4" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="D4" s="42">
+      <c r="D4" s="39">
         <v>43093</v>
       </c>
     </row>
@@ -4464,7 +4620,7 @@
       <c r="C5" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="D5" s="42">
+      <c r="D5" s="39">
         <v>43095</v>
       </c>
     </row>
@@ -4475,7 +4631,7 @@
       <c r="C6" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="D6" s="42">
+      <c r="D6" s="39">
         <v>43107</v>
       </c>
     </row>
@@ -4486,7 +4642,7 @@
       <c r="C7" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="D7" s="42">
+      <c r="D7" s="39">
         <v>43107</v>
       </c>
     </row>
@@ -4497,7 +4653,7 @@
       <c r="C8" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="D8" s="42">
+      <c r="D8" s="39">
         <v>43094</v>
       </c>
       <c r="J8" t="s">
@@ -4514,12 +4670,12 @@
       <c r="C9" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="D9" s="42">
+      <c r="D9" s="39">
         <v>43099</v>
       </c>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B10" s="41" t="s">
+      <c r="B10" s="38" t="s">
         <v>190</v>
       </c>
       <c r="C10" s="3"/>
@@ -4532,7 +4688,7 @@
       <c r="C11" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="D11" s="42">
+      <c r="D11" s="39">
         <v>43107</v>
       </c>
     </row>
@@ -4547,7 +4703,7 @@
       <c r="D13" s="3"/>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B14" s="41" t="s">
+      <c r="B14" s="38" t="s">
         <v>191</v>
       </c>
       <c r="C14" s="3"/>
